--- a/03备赛/过程记录.xlsx
+++ b/03备赛/过程记录.xlsx
@@ -8,19 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="队伍详细信息" sheetId="2" r:id="rId1"/>
-    <sheet name="Super赛车" sheetId="3" r:id="rId2"/>
-    <sheet name="帅的无言以队" sheetId="4" r:id="rId3"/>
-    <sheet name="啊对对队" sheetId="5" r:id="rId4"/>
-    <sheet name="碱基互补配队" sheetId="6" r:id="rId5"/>
-    <sheet name="独轮总能队" sheetId="7" r:id="rId6"/>
-    <sheet name="佩奇组" sheetId="8" r:id="rId7"/>
+    <sheet name="越野组" sheetId="10" r:id="rId2"/>
+    <sheet name="摩托组" sheetId="9" r:id="rId3"/>
+    <sheet name="气垫组" sheetId="5" r:id="rId4"/>
+    <sheet name="镜头组" sheetId="11" r:id="rId5"/>
+    <sheet name="独轮组" sheetId="7" r:id="rId6"/>
+    <sheet name="模型组" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
   <si>
     <t>第十九届智能车队伍详细信息</t>
   </si>
@@ -304,12 +304,21 @@
     <t>abc190009n31@163.com</t>
   </si>
   <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>2024-04-13</t>
+  </si>
+  <si>
+    <t>正在软件调试平衡</t>
+  </si>
+  <si>
+    <t>开始画主板了</t>
+  </si>
+  <si>
     <t>日期</t>
   </si>
   <si>
-    <t>2024-04-13</t>
-  </si>
-  <si>
     <t>安装气垫船底座—完成</t>
   </si>
   <si>
@@ -317,6 +326,24 @@
   </si>
   <si>
     <t>原理图绘制—一半</t>
+  </si>
+  <si>
+    <t>车模已差不多成型，还差焊接</t>
+  </si>
+  <si>
+    <t>软件已经进步行到起步阶段，即将对车辆进行平衡调试</t>
+  </si>
+  <si>
+    <t>电源相关知识已学完，正在进行电源PCB的设计</t>
+  </si>
+  <si>
+    <t>下位机</t>
+  </si>
+  <si>
+    <t>上位机</t>
+  </si>
+  <si>
+    <t>电路板</t>
   </si>
 </sst>
 </file>
@@ -325,9 +352,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -339,15 +366,15 @@
     </font>
     <font>
       <sz val="13"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -379,8 +406,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,45 +453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,8 +467,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,14 +499,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,23 +520,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -522,8 +534,23 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,12 +565,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -556,175 +595,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,6 +869,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -862,15 +913,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,15 +946,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -938,152 +971,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,23 +1126,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1117,40 +1174,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1159,25 +1216,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1710,7 +1767,7 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23:D27"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
@@ -1727,794 +1784,794 @@
     <col min="11" max="11" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="36" spans="1:11">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="17" customFormat="1" ht="36" spans="1:11">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="24"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" ht="19.5" spans="1:11">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:11">
-      <c r="A3" s="12">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="20">
         <v>18976848923</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="20">
         <v>3205223928</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:11">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="20">
         <v>13909934072</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="20">
         <v>2157646685</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" ht="17.25" spans="1:11">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="20">
         <v>18379028720</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="20">
         <v>1029867213</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" ht="17.25" spans="1:11">
-      <c r="A6" s="12">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="22">
         <v>15522999550</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="22">
         <v>1753373622</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:11">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="22">
         <v>18779680827</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="22">
         <v>1976640167</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" ht="17.25" spans="1:11">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="22">
         <v>15914897361</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="22">
         <v>2854908154</v>
       </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" ht="17.25" spans="1:11">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="22">
         <v>17786936509</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="22">
         <v>3474583090</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" ht="17.25" spans="1:11">
-      <c r="A10" s="15">
+      <c r="A10" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="20">
         <v>17373701992</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="20">
         <v>1469444875</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:11">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="20">
         <v>2763142268</v>
       </c>
-      <c r="K11" s="29"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" ht="17.25" spans="1:11">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="20">
         <v>15865767711</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="20">
         <v>2856427359</v>
       </c>
-      <c r="K12" s="29"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" ht="17.25" spans="1:11">
-      <c r="A13" s="18">
+      <c r="A13" s="26">
         <v>4</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="20">
         <v>15055092005</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="20">
         <v>861146418</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:11">
-      <c r="A14" s="18"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="20">
         <v>17889769490</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="20">
         <v>2904835056</v>
       </c>
-      <c r="K14" s="26"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" ht="17.25" spans="1:11">
-      <c r="A15" s="12">
+      <c r="A15" s="20">
         <v>5</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="22">
         <v>19331731290</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="22">
         <v>1903157075</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:11">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="22">
         <v>15853951259</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="22">
         <v>1259799962</v>
       </c>
-      <c r="K16" s="27"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" ht="17.25" spans="1:11">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="14" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="22">
         <v>18337021782</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="22">
         <v>2413792492</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" ht="17.25" spans="1:11">
-      <c r="A18" s="12">
+      <c r="A18" s="20">
         <v>6</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="20">
         <v>18976534806</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="20">
         <v>2106777958</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:11">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="20">
         <v>15348851215</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="20">
         <v>3057543683</v>
       </c>
-      <c r="K19" s="27"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" ht="17.25" spans="1:11">
-      <c r="A20" s="12">
+      <c r="A20" s="20">
         <v>7</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="20">
         <v>18990689551</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="20">
         <v>3127778480</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:11">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="20">
         <v>13732966876</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="20">
         <v>1539726678</v>
       </c>
-      <c r="K21" s="27"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" ht="17.25" spans="1:11">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="20">
         <v>18733822578</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="20">
         <v>1596204817</v>
       </c>
-      <c r="K22" s="27"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" ht="17.25" spans="1:11">
-      <c r="A23" s="19">
+      <c r="A23" s="27">
         <v>8</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="20">
         <v>15197637933</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="20">
         <v>3070167413</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="K23" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:11">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="20">
         <v>18907637842</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="20">
         <v>2902413207</v>
       </c>
-      <c r="K24" s="30"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" ht="17.25" spans="1:11">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="20">
         <v>18889900903</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="20">
         <v>1604088171</v>
       </c>
-      <c r="K25" s="26"/>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" ht="17.25" spans="1:11">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="12" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="20">
         <v>18436187870</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="20">
         <v>3182811175</v>
       </c>
-      <c r="K26" s="26"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" ht="17.25" spans="1:11">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="12" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="20">
         <v>17700956685</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="20">
         <v>2270032682</v>
       </c>
-      <c r="K27" s="26"/>
+      <c r="K27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2575,14 +2632,44 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="8"/>
+    <col min="2" max="3" width="25.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="16"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2591,14 +2678,43 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="8"/>
+    <col min="2" max="3" width="25.625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" spans="1:3">
+      <c r="A1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2612,43 +2728,43 @@
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="6"/>
+    <col min="1" max="1" width="9.875" style="8"/>
     <col min="2" max="2" width="20.15" customWidth="1"/>
     <col min="3" max="3" width="22.0666666666667" customWidth="1"/>
     <col min="4" max="4" width="21.7166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2660,14 +2776,40 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="8"/>
+    <col min="2" max="2" width="20.15" customWidth="1"/>
+    <col min="3" max="3" width="22.0666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2676,14 +2818,49 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="8"/>
+    <col min="2" max="4" width="25.625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" spans="1:4">
+      <c r="A2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2692,23 +2869,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="6" width="20.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="17.25" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>83</v>
@@ -2719,11 +2896,29 @@
       <c r="D1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/03备赛/过程记录.xlsx
+++ b/03备赛/过程记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
   <si>
     <t>第十九届智能车队伍详细信息</t>
   </si>
@@ -241,6 +241,12 @@
     <t>3057543683@qq.com</t>
   </si>
   <si>
+    <t>陈楠锦</t>
+  </si>
+  <si>
+    <t>1392232887@qq.com</t>
+  </si>
+  <si>
     <t>独轮组</t>
   </si>
   <si>
@@ -310,6 +316,15 @@
     <t>2024-04-13</t>
   </si>
   <si>
+    <t>负责硬件 主板、无刷驱动已绘制完成</t>
+  </si>
+  <si>
+    <t>负责软件 GPS模块调试中 预计下周完成GPS寻迹</t>
+  </si>
+  <si>
+    <t>负责软件 遥控模块已完成，声音寻迹模块正在调试中 预计下周完成声音寻迹</t>
+  </si>
+  <si>
     <t>正在软件调试平衡</t>
   </si>
   <si>
@@ -341,6 +356,9 @@
   </si>
   <si>
     <t>上位机</t>
+  </si>
+  <si>
+    <t>ai模型</t>
   </si>
   <si>
     <t>电路板</t>
@@ -351,12 +369,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,10 +418,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -411,6 +451,44 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,15 +508,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,22 +516,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +531,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,23 +545,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,38 +560,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,199 +589,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,6 +887,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -888,6 +921,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -902,21 +950,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -924,30 +957,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,157 +975,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1141,40 +1159,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1198,6 +1198,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1216,7 +1219,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1231,7 +1234,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1762,12 +1765,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
@@ -1784,794 +1787,821 @@
     <col min="11" max="11" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="36" spans="1:11">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="11" customFormat="1" ht="36" spans="1:11">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" ht="19.5" spans="1:11">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:11">
-      <c r="A3" s="20">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="14">
         <v>18976848923</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="14">
         <v>3205223928</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:11">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="14">
         <v>13909934072</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="14">
         <v>2157646685</v>
       </c>
-      <c r="K4" s="34"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" ht="17.25" spans="1:11">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="14">
         <v>18379028720</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="14">
         <v>1029867213</v>
       </c>
-      <c r="K5" s="34"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" ht="17.25" spans="1:11">
-      <c r="A6" s="20">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="16">
         <v>15522999550</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="16">
         <v>1753373622</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:11">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="22" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="16">
         <v>18779680827</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="16">
         <v>1976640167</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" ht="17.25" spans="1:11">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="22" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="16">
         <v>15914897361</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="16">
         <v>2854908154</v>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" ht="17.25" spans="1:11">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="16">
         <v>17786936509</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="16">
         <v>3474583090</v>
       </c>
-      <c r="K9" s="35"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" ht="17.25" spans="1:11">
-      <c r="A10" s="23">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="14">
         <v>17373701992</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="14">
         <v>1469444875</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:11">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="14">
         <v>2763142268</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" ht="17.25" spans="1:11">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="14">
         <v>15865767711</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="14">
         <v>2856427359</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" ht="17.25" spans="1:11">
-      <c r="A13" s="26">
+      <c r="A13" s="20">
         <v>4</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="14">
         <v>15055092005</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="14">
         <v>861146418</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:11">
-      <c r="A14" s="26"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="14">
         <v>17889769490</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="14">
         <v>2904835056</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" ht="17.25" spans="1:11">
-      <c r="A15" s="20">
+      <c r="A15" s="14">
         <v>5</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="16">
         <v>19331731290</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="16">
         <v>1903157075</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:11">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="22" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="16">
         <v>15853951259</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="16">
         <v>1259799962</v>
       </c>
-      <c r="K16" s="35"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" ht="17.25" spans="1:11">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="22" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="16">
         <v>18337021782</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="16">
         <v>2413792492</v>
       </c>
-      <c r="K17" s="35"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" ht="17.25" spans="1:11">
-      <c r="A18" s="20">
+      <c r="A18" s="14">
         <v>6</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="14">
         <v>18976534806</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="14">
         <v>2106777958</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:11">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="14">
         <v>15348851215</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="14">
         <v>3057543683</v>
       </c>
-      <c r="K19" s="35"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" ht="17.25" spans="1:11">
-      <c r="A20" s="20">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="21">
+        <v>18948563613</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1392232887</v>
+      </c>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" ht="17.25" spans="1:11">
+      <c r="A21" s="14">
         <v>7</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="C21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H21" s="14">
         <v>18990689551</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="20">
+      <c r="I21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="14">
         <v>3127778480</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K21" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="17.25" spans="1:11">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="20" t="s">
+    <row r="22" ht="17.25" spans="1:11">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H22" s="14">
         <v>13732966876</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="20">
+      <c r="I22" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="14">
         <v>1539726678</v>
       </c>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" ht="17.25" spans="1:11">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" ht="17.25" spans="1:11">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F23" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H23" s="14">
         <v>18733822578</v>
       </c>
-      <c r="I22" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="20">
+      <c r="I23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="14">
         <v>1596204817</v>
       </c>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" ht="17.25" spans="1:11">
-      <c r="A23" s="27">
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" ht="17.25" spans="1:11">
+      <c r="A24" s="22">
         <v>8</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="29" t="s">
+      <c r="B24" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="C24" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="29" t="s">
+      <c r="F24" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H24" s="14">
         <v>15197637933</v>
       </c>
-      <c r="I23" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="20">
+      <c r="I24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="14">
         <v>3070167413</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K24" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" ht="17.25" spans="1:11">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="29" t="s">
+    <row r="25" ht="17.25" spans="1:11">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="G25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="14">
+        <v>18907637842</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="14">
+        <v>2902413207</v>
+      </c>
+      <c r="K25" s="33"/>
+    </row>
+    <row r="26" ht="17.25" spans="1:11">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="29" t="s">
+      <c r="F26" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="20">
-        <v>18907637842</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="20">
-        <v>2902413207</v>
-      </c>
-      <c r="K24" s="38"/>
-    </row>
-    <row r="25" ht="17.25" spans="1:11">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="29" t="s">
+      <c r="H26" s="14">
+        <v>18889900903</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1604088171</v>
+      </c>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" ht="17.25" spans="1:11">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="29" t="s">
+      <c r="F27" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="20">
-        <v>18889900903</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" s="20">
-        <v>1604088171</v>
-      </c>
-      <c r="K25" s="34"/>
-    </row>
-    <row r="26" ht="17.25" spans="1:11">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="20" t="s">
+      <c r="H27" s="14">
+        <v>18436187870</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="14">
+        <v>3182811175</v>
+      </c>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" ht="17.25" spans="1:11">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="20" t="s">
+      <c r="F28" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="20">
-        <v>18436187870</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="20">
-        <v>3182811175</v>
-      </c>
-      <c r="K26" s="34"/>
-    </row>
-    <row r="27" ht="17.25" spans="1:11">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="20">
+      <c r="H28" s="14">
         <v>17700956685</v>
       </c>
-      <c r="I27" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" s="20">
+      <c r="I28" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="14">
         <v>2270032682</v>
       </c>
-      <c r="K27" s="34"/>
+      <c r="K28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2581,48 +2611,49 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" display="15522999550@163.com" tooltip="mailto:15522999550@163.com"/>
     <hyperlink ref="I7" r:id="rId2" display="1976640167@qq.com" tooltip="mailto:1976640167@qq.com"/>
-    <hyperlink ref="I21" r:id="rId3" display="1539726678@qq.com"/>
+    <hyperlink ref="I22" r:id="rId3" display="1539726678@qq.com"/>
     <hyperlink ref="I15" r:id="rId4" display="19331731290@163.com"/>
     <hyperlink ref="I16" r:id="rId5" display="1259799962@qq.com"/>
     <hyperlink ref="I17" r:id="rId6" display="18337021782@163.com"/>
     <hyperlink ref="I13" r:id="rId7" display="861146418@qq.com"/>
     <hyperlink ref="I14" r:id="rId8" display="2904835056@qq.com"/>
-    <hyperlink ref="I23" r:id="rId9" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="J23" r:id="rId9" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="I24" r:id="rId10" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
-    <hyperlink ref="I25" r:id="rId11" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
+    <hyperlink ref="I24" r:id="rId9" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="J24" r:id="rId9" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="I25" r:id="rId10" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
+    <hyperlink ref="I26" r:id="rId11" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
     <hyperlink ref="I3" r:id="rId12" display="3205223928@qq.com"/>
     <hyperlink ref="I10" r:id="rId13" display="1469444875@qq.com"/>
     <hyperlink ref="I11" r:id="rId14" display="2763142268@qq.com"/>
     <hyperlink ref="I12" r:id="rId15" display="2856427359@qq.com"/>
-    <hyperlink ref="I26" r:id="rId16" display="3182811175@qq.com"/>
-    <hyperlink ref="I20" r:id="rId17" display="3127778480@qq.com"/>
-    <hyperlink ref="I22" r:id="rId18" display="1596204817@qq.com"/>
+    <hyperlink ref="I27" r:id="rId16" display="3182811175@qq.com"/>
+    <hyperlink ref="I21" r:id="rId17" display="3127778480@qq.com"/>
+    <hyperlink ref="I23" r:id="rId18" display="1596204817@qq.com"/>
     <hyperlink ref="I5" r:id="rId19" display="1029867213@qq.com"/>
     <hyperlink ref="I8" r:id="rId20" display="2854908154@qq.com" tooltip="mailto:2854908154@qq.com"/>
+    <hyperlink ref="I20" r:id="rId21" display="1392232887@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2637,37 +2668,43 @@
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="8"/>
-    <col min="2" max="3" width="25.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="1"/>
+    <col min="2" max="3" width="25.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
-      <c r="A1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="16"/>
+    <row r="2" ht="43.5" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2688,30 +2725,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="8"/>
-    <col min="2" max="3" width="25.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="1"/>
+    <col min="2" max="3" width="25.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>97</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2733,38 +2770,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="8"/>
+    <col min="1" max="1" width="9.875" style="1"/>
     <col min="2" max="2" width="20.15" customWidth="1"/>
     <col min="3" max="3" width="22.0666666666667" customWidth="1"/>
     <col min="4" max="4" width="21.7166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
-      <c r="A1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>95</v>
+      <c r="A2" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2786,25 +2823,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="8"/>
+    <col min="1" max="1" width="9.875" style="1"/>
     <col min="2" max="2" width="20.15" customWidth="1"/>
     <col min="3" max="3" width="22.0666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:3">
-      <c r="A1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
-        <v>95</v>
+      <c r="A2" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2828,36 +2865,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="8"/>
-    <col min="2" max="4" width="25.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="1"/>
+    <col min="2" max="4" width="25.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
-      <c r="A1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="2" ht="28.5" spans="1:4">
-      <c r="A2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>104</v>
+      <c r="A2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2874,7 +2911,7 @@
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -2885,40 +2922,42 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/03备赛/过程记录.xlsx
+++ b/03备赛/过程记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12570" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12975" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="队伍详细信息" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
   <si>
     <t>第十九届智能车队伍详细信息</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>原理图绘制—一半</t>
+  </si>
+  <si>
+    <t>硬件：打板</t>
+  </si>
+  <si>
+    <t>已完成电驱、负压；正在学习图像处理</t>
   </si>
   <si>
     <t>车模已差不多成型，还差焊接</t>
@@ -369,10 +375,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -430,9 +436,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,8 +467,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -455,7 +490,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,53 +551,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,14 +559,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,35 +579,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -601,31 +607,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,19 +697,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,13 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,97 +781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,6 +893,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -902,20 +917,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,28 +947,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,153 +979,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,8 +1171,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2702,7 +2708,7 @@
       <c r="C2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2813,22 +2819,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1"/>
     <col min="2" max="2" width="20.15" customWidth="1"/>
     <col min="3" max="3" width="22.0666666666667" customWidth="1"/>
+    <col min="4" max="4" width="24.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:3">
+    <row r="1" ht="17.25" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>103</v>
       </c>
@@ -2838,15 +2845,26 @@
       <c r="C1" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2888,13 +2906,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2908,7 +2926,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
@@ -2945,19 +2963,19 @@
         <v>97</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/03备赛/过程记录.xlsx
+++ b/03备赛/过程记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12975" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12570" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="队伍详细信息" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="132">
   <si>
     <t>第十九届智能车队伍详细信息</t>
   </si>
@@ -325,6 +325,18 @@
     <t>负责软件 遥控模块已完成，声音寻迹模块正在调试中 预计下周完成声音寻迹</t>
   </si>
   <si>
+    <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>主控板已打印</t>
+  </si>
+  <si>
+    <t>没进展</t>
+  </si>
+  <si>
+    <t>李叶雨</t>
+  </si>
+  <si>
     <t>正在软件调试平衡</t>
   </si>
   <si>
@@ -343,12 +355,30 @@
     <t>原理图绘制—一半</t>
   </si>
   <si>
+    <t>镜头：05-06 看镜头效果</t>
+  </si>
+  <si>
+    <t>05-03: 看电机</t>
+  </si>
+  <si>
+    <t>原理图完成，5-3 PCB完成</t>
+  </si>
+  <si>
     <t>硬件：打板</t>
   </si>
   <si>
     <t>已完成电驱、负压；正在学习图像处理</t>
   </si>
   <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>软件：循线初步完成</t>
+  </si>
+  <si>
     <t>车模已差不多成型，还差焊接</t>
   </si>
   <si>
@@ -358,6 +388,9 @@
     <t>电源相关知识已学完，正在进行电源PCB的设计</t>
   </si>
   <si>
+    <t>05-11：陀螺仪</t>
+  </si>
+  <si>
     <t>下位机</t>
   </si>
   <si>
@@ -368,6 +401,25 @@
   </si>
   <si>
     <t>电路板</t>
+  </si>
+  <si>
+    <t>05-01：芯片选型
+05-06：下位机学习板掌握</t>
+  </si>
+  <si>
+    <t>没开始工作
+05-01：任务描述
+05-06：？</t>
+  </si>
+  <si>
+    <t>模型:0.92</t>
+  </si>
+  <si>
+    <t>完成原理图</t>
+  </si>
+  <si>
+    <t>05-01： 上位机-&gt;下位机数据
+05-06：循迹完成</t>
   </si>
 </sst>
 </file>
@@ -375,8 +427,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -436,6 +488,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -453,31 +520,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,21 +539,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,17 +557,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,10 +581,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,16 +595,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,25 +653,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,157 +827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,10 +865,23 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -843,6 +908,19 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -856,19 +934,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -876,28 +941,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,6 +956,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,6 +1008,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -973,15 +1034,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -995,152 +1047,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,17 +1214,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1192,13 +1259,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1207,25 +1274,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1234,10 +1301,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1793,821 +1860,821 @@
     <col min="11" max="11" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="36" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="16" customFormat="1" ht="36" spans="1:11">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="27"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" ht="19.5" spans="1:11">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:11">
-      <c r="A3" s="14">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="19">
         <v>18976848923</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="19">
         <v>3205223928</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:11">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="19">
         <v>13909934072</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="19">
         <v>2157646685</v>
       </c>
-      <c r="K4" s="29"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" ht="17.25" spans="1:11">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="19">
         <v>18379028720</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="19">
         <v>1029867213</v>
       </c>
-      <c r="K5" s="29"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" ht="17.25" spans="1:11">
-      <c r="A6" s="14">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="21">
         <v>15522999550</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="21">
         <v>1753373622</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:11">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="21">
         <v>18779680827</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="21">
         <v>1976640167</v>
       </c>
-      <c r="K7" s="30"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" ht="17.25" spans="1:11">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="21">
         <v>15914897361</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="21">
         <v>2854908154</v>
       </c>
-      <c r="K8" s="30"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" ht="17.25" spans="1:11">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="21">
         <v>17786936509</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="21">
         <v>3474583090</v>
       </c>
-      <c r="K9" s="30"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" ht="17.25" spans="1:11">
-      <c r="A10" s="17">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="19">
         <v>17373701992</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="19">
         <v>1469444875</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="19">
         <v>2763142268</v>
       </c>
-      <c r="K11" s="32"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" ht="17.25" spans="1:11">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="19">
         <v>15865767711</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="19">
         <v>2856427359</v>
       </c>
-      <c r="K12" s="32"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" ht="17.25" spans="1:11">
-      <c r="A13" s="20">
+      <c r="A13" s="25">
         <v>4</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="19">
         <v>15055092005</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="19">
         <v>861146418</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:11">
-      <c r="A14" s="20"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="19">
         <v>17889769490</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="19">
         <v>2904835056</v>
       </c>
-      <c r="K14" s="29"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" ht="17.25" spans="1:11">
-      <c r="A15" s="14">
+      <c r="A15" s="19">
         <v>5</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="21">
         <v>19331731290</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="21">
         <v>1903157075</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:11">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="21">
         <v>15853951259</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="21">
         <v>1259799962</v>
       </c>
-      <c r="K16" s="30"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" ht="17.25" spans="1:11">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="21">
         <v>18337021782</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="21">
         <v>2413792492</v>
       </c>
-      <c r="K17" s="30"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" ht="17.25" spans="1:11">
-      <c r="A18" s="14">
+      <c r="A18" s="19">
         <v>6</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="19">
         <v>18976534806</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="19">
         <v>2106777958</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:11">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="19">
         <v>15348851215</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="19">
         <v>3057543683</v>
       </c>
-      <c r="K19" s="29"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" ht="17.25" spans="1:11">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="21" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="26">
         <v>18948563613</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="26">
         <v>1392232887</v>
       </c>
-      <c r="K20" s="30"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" ht="17.25" spans="1:11">
-      <c r="A21" s="14">
+      <c r="A21" s="19">
         <v>7</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="19">
         <v>18990689551</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="19">
         <v>3127778480</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:11">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="19">
         <v>13732966876</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="19">
         <v>1539726678</v>
       </c>
-      <c r="K22" s="30"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" ht="17.25" spans="1:11">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="19">
         <v>18733822578</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="19">
         <v>1596204817</v>
       </c>
-      <c r="K23" s="30"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" ht="17.25" spans="1:11">
-      <c r="A24" s="22">
+      <c r="A24" s="27">
         <v>8</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="19">
         <v>15197637933</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="19">
         <v>3070167413</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="K24" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:11">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="24" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="19">
         <v>18907637842</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="19">
         <v>2902413207</v>
       </c>
-      <c r="K25" s="33"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" ht="17.25" spans="1:11">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="19">
         <v>18889900903</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="19">
         <v>1604088171</v>
       </c>
-      <c r="K26" s="29"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" ht="17.25" spans="1:11">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="14" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="19">
         <v>18436187870</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="19">
         <v>3182811175</v>
       </c>
-      <c r="K27" s="29"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" ht="17.25" spans="1:11">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="14" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="19">
         <v>17700956685</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="19">
         <v>2270032682</v>
       </c>
-      <c r="K28" s="29"/>
+      <c r="K28" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2669,15 +2736,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1"/>
     <col min="2" max="3" width="25.625" style="2" customWidth="1"/>
@@ -2688,13 +2755,13 @@
       <c r="A1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2710,6 +2777,20 @@
       </c>
       <c r="D2" s="6" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2721,29 +2802,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1"/>
     <col min="2" max="3" width="25.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:3">
+    <row r="1" ht="17.25" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>56</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2751,10 +2835,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2766,15 +2850,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1"/>
     <col min="2" max="2" width="20.15" customWidth="1"/>
@@ -2783,31 +2867,45 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>106</v>
+      <c r="B2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2819,47 +2917,61 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1"/>
     <col min="2" max="2" width="20.15" customWidth="1"/>
-    <col min="3" max="3" width="22.0666666666667" customWidth="1"/>
+    <col min="3" max="3" width="32.7083333333333" customWidth="1"/>
     <col min="4" max="4" width="24.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="B2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2873,15 +2985,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1"/>
     <col min="2" max="4" width="25.625" style="2" customWidth="1"/>
@@ -2891,13 +3003,13 @@
       <c r="A1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2906,16 +3018,31 @@
         <v>97</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>111</v>
-      </c>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2924,15 +3051,15 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="6" width="20.625" style="2" customWidth="1"/>
@@ -2940,7 +3067,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>85</v>
@@ -2951,10 +3078,10 @@
       <c r="D1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2963,19 +3090,39 @@
         <v>97</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>113</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/03备赛/过程记录.xlsx
+++ b/03备赛/过程记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="越野组" sheetId="10" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
   <si>
     <t>时间</t>
   </si>
@@ -70,6 +70,12 @@
     <t>Lora 没有完成，声音循迹部分完成</t>
   </si>
   <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>主车完成、正在副车焊板</t>
+  </si>
+  <si>
     <t>张志硕</t>
   </si>
   <si>
@@ -101,6 +107,18 @@
   </si>
   <si>
     <t>立不起来</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>编码器有问题</t>
+  </si>
+  <si>
+    <t>重新打板(主驱一体)在路上</t>
+  </si>
+  <si>
+    <t>没进展，不再参加其他比赛</t>
   </si>
   <si>
     <t>日期</t>
@@ -195,6 +213,9 @@
   </si>
   <si>
     <t>已请假，旧图101上课</t>
+  </si>
+  <si>
+    <t>驱动板26日到；主板需完善下周可见</t>
   </si>
   <si>
     <t>赵科磊</t>
@@ -284,6 +305,9 @@
     <t>没有进展，还没有开始焊板</t>
   </si>
   <si>
+    <t>全队决定弃赛</t>
+  </si>
+  <si>
     <t>魏郡辰</t>
   </si>
   <si>
@@ -300,6 +324,13 @@
   </si>
   <si>
     <t>继电器重新画、主板和驱动板没测</t>
+  </si>
+  <si>
+    <t>旧摄像头处理图片没问题
+新摄像头的图片格式还没掌握</t>
+  </si>
+  <si>
+    <t>机械结构有变动，正在优化</t>
   </si>
 </sst>
 </file>
@@ -307,10 +338,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -340,6 +371,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -347,8 +470,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,115 +502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,25 +529,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,151 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,23 +774,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,9 +806,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,28 +839,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,152 +873,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,11 +1049,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1573,15 +1607,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1"/>
     <col min="2" max="3" width="25.625" style="2" customWidth="1"/>
@@ -1592,16 +1626,16 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1618,7 +1652,7 @@
       <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
@@ -1630,10 +1664,10 @@
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
@@ -1645,10 +1679,21 @@
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1659,86 +1704,108 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="1"/>
-    <col min="2" max="3" width="25.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" ht="27" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1754,7 +1821,7 @@
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1766,19 +1833,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="A1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1787,56 +1854,56 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" ht="27" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="54" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1847,15 +1914,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1"/>
     <col min="2" max="2" width="20.15" customWidth="1"/>
@@ -1865,19 +1932,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="A1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1886,48 +1953,57 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
-        <v>48</v>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1941,15 +2017,15 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1"/>
     <col min="2" max="4" width="25.625" style="2" customWidth="1"/>
@@ -1959,14 +2035,14 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>52</v>
+      <c r="B1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:4">
@@ -1974,13 +2050,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1988,30 +2064,40 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="27" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2025,15 +2111,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.925" style="2" customWidth="1"/>
@@ -2045,24 +2131,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2071,99 +2157,115 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="40.5" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="67.5" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
         <v>0.98</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" ht="67.5" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:G7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2172,15 +2274,15 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.1416666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.925" style="2" customWidth="1"/>
@@ -2191,19 +2293,19 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2214,17 +2316,32 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
